--- a/Base de données/LA_DA.xlsx
+++ b/Base de données/LA_DA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
   <si>
     <t>idLA_DA</t>
   </si>
@@ -28,6 +28,63 @@
   </si>
   <si>
     <t>occurencesLA_DA</t>
+  </si>
+  <si>
+    <t>2011-2015</t>
+  </si>
+  <si>
+    <t>1994-2005</t>
+  </si>
+  <si>
+    <t>2006-2010</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>FRE</t>
+  </si>
+  <si>
+    <t>SPA</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>SLO</t>
+  </si>
+  <si>
+    <t>HRV</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>TUR</t>
   </si>
 </sst>
 </file>
@@ -366,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,6 +443,524 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
